--- a/MySQL/Output/users.xlsx
+++ b/MySQL/Output/users.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,6 +437,11 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -452,50 +457,26 @@
           <t>long@example.com</t>
         </is>
       </c>
+      <c r="D2" t="n">
+        <v>123456789</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Trang</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>long@example.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hai</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>longnh63@example.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Hai</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>longnh63@example.com</t>
-        </is>
+          <t>tranglt23</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>

--- a/MySQL/Output/users.xlsx
+++ b/MySQL/Output/users.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,42 @@
         <v>123456</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Trang</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>tranglt23</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Trang</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>tranglt23</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>123456</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
